--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>995747.0407645695</v>
+        <v>993087.1972394921</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>299.5720036456156</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>12.95383262423903</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.533183649868</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958686</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.9207765545704</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>14.65339590377575</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>21.52598804182478</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>167.2533192283177</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>412.9169039459368</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>200.9838803217804</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.213311007299779</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>206.3137109670454</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.2436403474272</v>
+        <v>158.131255837012</v>
       </c>
       <c r="H8" t="n">
-        <v>249.6834951898857</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>92.5400460123484</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>139.3108928771023</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>209.7046517124902</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1009251344199</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>96.42777606792038</v>
       </c>
       <c r="I9" t="n">
-        <v>33.04322907152304</v>
+        <v>33.04322907152306</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2810481729024</v>
+        <v>141.2810481729025</v>
       </c>
       <c r="T9" t="n">
         <v>193.5674321249209</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>135.268226251793</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>79.1243760567838</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.6187736822062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>150.0270165858486</v>
       </c>
       <c r="I10" t="n">
-        <v>114.1845078632266</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.1027954790071</v>
       </c>
       <c r="T10" t="n">
         <v>222.082528811566</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2441817741499</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3012171023021</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>106.0193271727209</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238024</v>
+        <v>22.60777203238013</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.975526991141</v>
+        <v>97.97552699114094</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035209</v>
+        <v>9.753166794035167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.01560187744295</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034038</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146332</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>36.12932374479332</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754663</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1664,7 +1664,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>277.4607323328453</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.1983720868896</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>18.56378395870511</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417127</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>60.86846495359832</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795608</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503966</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.81332727248881</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>35.41770597126612</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.04917322725694</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182108</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444143</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>200.41200835396</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605715943</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3244,10 +3244,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>139.5271979141361</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.006892987833892</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>130.1208074460233</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>148.8796904206625</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.955370467302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1621.288675400592</v>
+        <v>902.5373151068286</v>
       </c>
       <c r="C2" t="n">
-        <v>1621.288675400592</v>
+        <v>902.5373151068286</v>
       </c>
       <c r="D2" t="n">
-        <v>1621.288675400592</v>
+        <v>902.5373151068286</v>
       </c>
       <c r="E2" t="n">
-        <v>1318.690691920173</v>
+        <v>516.7490625085843</v>
       </c>
       <c r="F2" t="n">
-        <v>907.7047871305651</v>
+        <v>503.664383090161</v>
       </c>
       <c r="G2" t="n">
         <v>490.6170053669925</v>
@@ -4325,28 +4325,28 @@
         <v>172.393890139502</v>
       </c>
       <c r="I2" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
         <v>73.93516953299616</v>
       </c>
       <c r="K2" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L2" t="n">
-        <v>683.1408478992856</v>
+        <v>616.7309383942948</v>
       </c>
       <c r="M2" t="n">
-        <v>1314.858658882597</v>
+        <v>1248.448749377606</v>
       </c>
       <c r="N2" t="n">
-        <v>1942.166326942444</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O2" t="n">
-        <v>2489.327531709521</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P2" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4355,25 +4355,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U2" t="n">
-        <v>2381.354273725794</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V2" t="n">
-        <v>2381.354273725794</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W2" t="n">
-        <v>2381.354273725794</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="X2" t="n">
-        <v>2007.888515464714</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="Y2" t="n">
-        <v>2007.888515464714</v>
+        <v>1289.13715517095</v>
       </c>
     </row>
     <row r="3">
@@ -4383,58 +4383,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C3" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D3" t="n">
-        <v>642.7351650238404</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E3" t="n">
-        <v>483.4977100183849</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9631520452699</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G3" t="n">
-        <v>199.5217544044918</v>
+        <v>199.521754404492</v>
       </c>
       <c r="H3" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929655</v>
       </c>
       <c r="I3" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>120.3087392029699</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L3" t="n">
-        <v>346.1860297752926</v>
+        <v>528.1332110007638</v>
       </c>
       <c r="M3" t="n">
-        <v>986.7313792423972</v>
+        <v>1168.678560467868</v>
       </c>
       <c r="N3" t="n">
-        <v>1638.905258545106</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P3" t="n">
-        <v>2612.309035778666</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.467288245465</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T3" t="n">
         <v>2267.477992405552</v>
@@ -4443,7 +4443,7 @@
         <v>2039.339204916718</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.187096684976</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W3" t="n">
         <v>1549.949739956774</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>508.5339427561102</v>
+        <v>516.110805624533</v>
       </c>
       <c r="C4" t="n">
-        <v>508.5339427561102</v>
+        <v>516.110805624533</v>
       </c>
       <c r="D4" t="n">
-        <v>508.5339427561102</v>
+        <v>516.110805624533</v>
       </c>
       <c r="E4" t="n">
-        <v>360.6208491737171</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="F4" t="n">
-        <v>360.6208491737171</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G4" t="n">
-        <v>192.0140041691005</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>192.0140041691005</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>67.50232954342675</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
         <v>153.7488491352227</v>
@@ -4516,22 +4516,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.635600998958</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U4" t="n">
-        <v>1052.635600998958</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V4" t="n">
-        <v>797.9511127930708</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="W4" t="n">
-        <v>508.5339427561102</v>
+        <v>516.110805624533</v>
       </c>
       <c r="X4" t="n">
-        <v>508.5339427561102</v>
+        <v>516.110805624533</v>
       </c>
       <c r="Y4" t="n">
-        <v>508.5339427561102</v>
+        <v>516.110805624533</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1871.440886743751</v>
+        <v>1635.525375631449</v>
       </c>
       <c r="C5" t="n">
-        <v>1502.47836980334</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="D5" t="n">
-        <v>1144.212671196589</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E5" t="n">
-        <v>758.424418598345</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F5" t="n">
-        <v>589.4816719030746</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I5" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
         <v>241.3408185533492</v>
@@ -4571,16 +4571,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L5" t="n">
-        <v>1032.36013938198</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M5" t="n">
-        <v>1219.059552207388</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N5" t="n">
-        <v>1413.39376509937</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O5" t="n">
-        <v>1960.554969866448</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P5" t="n">
         <v>2389.870016205742</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2275.81691895042</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.045976980643</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="V5" t="n">
-        <v>2635.045976980643</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="W5" t="n">
-        <v>2635.045976980643</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="X5" t="n">
-        <v>2261.580218719563</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="Y5" t="n">
-        <v>1871.440886743751</v>
+        <v>2022.125215695571</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G6" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H6" t="n">
         <v>98.60577654929637</v>
       </c>
       <c r="I6" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L6" t="n">
-        <v>1005.150115568437</v>
+        <v>599.2575280293014</v>
       </c>
       <c r="M6" t="n">
-        <v>1184.647451923042</v>
+        <v>778.7548643839062</v>
       </c>
       <c r="N6" t="n">
-        <v>1430.928743686616</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439339</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P6" t="n">
         <v>2404.332520920175</v>
@@ -4668,7 +4668,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R6" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S6" t="n">
         <v>2464.467288245464</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217.4654547968858</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C7" t="n">
-        <v>217.4654547968858</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>217.4654547968858</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
-        <v>217.4654547968858</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
-        <v>70.57550729897548</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>70.57550729897548</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
-        <v>70.57550729897548</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897548</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K7" t="n">
         <v>153.7488491352227</v>
@@ -4750,25 +4750,25 @@
         <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>922.1576397183603</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T7" t="n">
-        <v>922.1576397183603</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="U7" t="n">
-        <v>922.1576397183603</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="V7" t="n">
-        <v>667.4731515124735</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="W7" t="n">
-        <v>667.4731515124735</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="X7" t="n">
-        <v>439.4836006144561</v>
+        <v>261.0986073851133</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.691021470926</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1132.300092548728</v>
+        <v>1040.077971037353</v>
       </c>
       <c r="C8" t="n">
-        <v>1132.300092548728</v>
+        <v>671.115454096941</v>
       </c>
       <c r="D8" t="n">
-        <v>1132.300092548728</v>
+        <v>312.8497554901905</v>
       </c>
       <c r="E8" t="n">
-        <v>1132.300092548728</v>
+        <v>312.8497554901905</v>
       </c>
       <c r="F8" t="n">
-        <v>721.3141877591208</v>
+        <v>305.904254740987</v>
       </c>
       <c r="G8" t="n">
-        <v>304.9064702364671</v>
+        <v>146.1757134914799</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961286</v>
+        <v>146.1757134914799</v>
       </c>
       <c r="I8" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>297.9118008339146</v>
+        <v>130.5061518135615</v>
       </c>
       <c r="K8" t="n">
-        <v>606.8745119374344</v>
+        <v>618.758502757835</v>
       </c>
       <c r="L8" t="n">
-        <v>851.3867526472757</v>
+        <v>863.2707434676761</v>
       </c>
       <c r="M8" t="n">
-        <v>1155.123170346067</v>
+        <v>1167.007161166467</v>
       </c>
       <c r="N8" t="n">
-        <v>1468.388169208705</v>
+        <v>1819.181040469176</v>
       </c>
       <c r="O8" t="n">
-        <v>1750.860163237718</v>
+        <v>2101.653034498188</v>
       </c>
       <c r="P8" t="n">
-        <v>2276.023195151742</v>
+        <v>2308.235345322444</v>
       </c>
       <c r="Q8" t="n">
         <v>2593.177001405962</v>
@@ -4829,25 +4829,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2494.327903367408</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2282.505022849742</v>
+        <v>2423.223096462976</v>
       </c>
       <c r="U8" t="n">
-        <v>2282.505022849742</v>
+        <v>2169.5857983474</v>
       </c>
       <c r="V8" t="n">
-        <v>2282.505022849742</v>
+        <v>2169.5857983474</v>
       </c>
       <c r="W8" t="n">
-        <v>2282.505022849742</v>
+        <v>1816.817143077286</v>
       </c>
       <c r="X8" t="n">
-        <v>1909.039264588662</v>
+        <v>1816.817143077286</v>
       </c>
       <c r="Y8" t="n">
-        <v>1518.89993261285</v>
+        <v>1426.677811101474</v>
       </c>
     </row>
     <row r="9">
@@ -4869,40 +4869,40 @@
         <v>467.0918017762573</v>
       </c>
       <c r="F9" t="n">
-        <v>320.5572438031422</v>
+        <v>320.5572438031423</v>
       </c>
       <c r="G9" t="n">
         <v>183.4797126097577</v>
       </c>
       <c r="H9" t="n">
-        <v>86.07791860175735</v>
+        <v>86.07791860175736</v>
       </c>
       <c r="I9" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>205.0534608927868</v>
+        <v>205.0534608927867</v>
       </c>
       <c r="K9" t="n">
-        <v>592.069063535929</v>
+        <v>592.0690635359288</v>
       </c>
       <c r="L9" t="n">
-        <v>1013.894864932035</v>
+        <v>1148.67611611893</v>
       </c>
       <c r="M9" t="n">
-        <v>1283.752970712386</v>
+        <v>1418.534221899281</v>
       </c>
       <c r="N9" t="n">
-        <v>1575.162062480635</v>
+        <v>1709.94331366753</v>
       </c>
       <c r="O9" t="n">
-        <v>1819.524654862715</v>
+        <v>2344.229602133571</v>
       </c>
       <c r="P9" t="n">
-        <v>2311.592253346289</v>
+        <v>2521.019059663608</v>
       </c>
       <c r="Q9" t="n">
-        <v>2587.82864230215</v>
+        <v>2589.278933760978</v>
       </c>
       <c r="R9" t="n">
         <v>2589.278933760978</v>
@@ -4936,46 +4936,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.5176108356476</v>
+        <v>434.2836121263248</v>
       </c>
       <c r="C10" t="n">
-        <v>624.5176108356476</v>
+        <v>434.2836121263248</v>
       </c>
       <c r="D10" t="n">
-        <v>487.8830388641395</v>
+        <v>284.166972713989</v>
       </c>
       <c r="E10" t="n">
-        <v>487.8830388641395</v>
+        <v>204.2433605354195</v>
       </c>
       <c r="F10" t="n">
-        <v>487.8830388641395</v>
+        <v>204.2433605354195</v>
       </c>
       <c r="G10" t="n">
-        <v>319.5812472659514</v>
+        <v>204.2433605354195</v>
       </c>
       <c r="H10" t="n">
-        <v>168.0388062701448</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
-        <v>56.32012312205264</v>
+        <v>56.32012312205258</v>
       </c>
       <c r="K10" t="n">
-        <v>192.1044230969987</v>
+        <v>192.1044230969985</v>
       </c>
       <c r="L10" t="n">
-        <v>421.3880127696218</v>
+        <v>421.3880127696216</v>
       </c>
       <c r="M10" t="n">
-        <v>673.5245332424508</v>
+        <v>673.5245332424505</v>
       </c>
       <c r="N10" t="n">
-        <v>925.1004272331222</v>
+        <v>925.1004272331218</v>
       </c>
       <c r="O10" t="n">
-        <v>1141.455188557396</v>
+        <v>1141.455188557395</v>
       </c>
       <c r="P10" t="n">
         <v>1303.063381081417</v>
@@ -4987,25 +4987,25 @@
         <v>1331.517436617901</v>
       </c>
       <c r="S10" t="n">
-        <v>1331.517436617901</v>
+        <v>1129.39340078052</v>
       </c>
       <c r="T10" t="n">
-        <v>1107.191649939552</v>
+        <v>905.0676141021704</v>
       </c>
       <c r="U10" t="n">
-        <v>1107.191649939552</v>
+        <v>615.9320769565645</v>
       </c>
       <c r="V10" t="n">
-        <v>852.5071617336649</v>
+        <v>615.9320769565645</v>
       </c>
       <c r="W10" t="n">
-        <v>852.5071617336649</v>
+        <v>615.9320769565645</v>
       </c>
       <c r="X10" t="n">
-        <v>624.5176108356476</v>
+        <v>615.9320769565645</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.5176108356476</v>
+        <v>615.9320769565645</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1788.749549056744</v>
+        <v>1535.258832689355</v>
       </c>
       <c r="C11" t="n">
-        <v>1419.787032116332</v>
+        <v>1166.296315748943</v>
       </c>
       <c r="D11" t="n">
-        <v>1419.787032116332</v>
+        <v>1166.296315748943</v>
       </c>
       <c r="E11" t="n">
-        <v>1033.998779518088</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="F11" t="n">
-        <v>623.0128747284803</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="G11" t="n">
-        <v>208.4374290581274</v>
+        <v>393.8408528035377</v>
       </c>
       <c r="H11" t="n">
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469185</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386832</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420321</v>
+        <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
         <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878112</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765426</v>
+        <v>2485.180661765428</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687102</v>
+        <v>3070.226377687105</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856284</v>
+        <v>3535.048359856286</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882242</v>
+        <v>3835.937563882246</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234592</v>
+        <v>3925.553311234595</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455662</v>
+        <v>3826.588132455665</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971442</v>
+        <v>3622.786021971445</v>
       </c>
       <c r="U11" t="n">
-        <v>3622.786021971442</v>
+        <v>3369.295305604053</v>
       </c>
       <c r="V11" t="n">
-        <v>3291.723134627871</v>
+        <v>3038.232418260483</v>
       </c>
       <c r="W11" t="n">
-        <v>2938.954479357757</v>
+        <v>2685.463762990368</v>
       </c>
       <c r="X11" t="n">
-        <v>2565.488721096677</v>
+        <v>2311.998004729288</v>
       </c>
       <c r="Y11" t="n">
-        <v>2175.349389120865</v>
+        <v>1921.858672753477</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469185</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469185</v>
+        <v>196.8120623792131</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831293</v>
+        <v>477.1621322376508</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843891</v>
+        <v>900.4499396649609</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282785</v>
+        <v>1413.763713908851</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1518.698809735872</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.9882200193192</v>
+        <v>395.360342734992</v>
       </c>
       <c r="C13" t="n">
-        <v>614.0520370914123</v>
+        <v>226.424159807085</v>
       </c>
       <c r="D13" t="n">
-        <v>463.9353976790766</v>
+        <v>226.424159807085</v>
       </c>
       <c r="E13" t="n">
-        <v>316.0223040966835</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="F13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="H13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.4550473457707</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888919</v>
+        <v>717.5002252888921</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
@@ -5218,31 +5218,31 @@
         <v>2060.002133082522</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551106</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551105</v>
+        <v>1888.302075370157</v>
       </c>
       <c r="T13" t="n">
-        <v>1935.094986101151</v>
+        <v>1667.488017920203</v>
       </c>
       <c r="U13" t="n">
-        <v>1646.00427954144</v>
+        <v>1378.397311360491</v>
       </c>
       <c r="V13" t="n">
-        <v>1391.319791335553</v>
+        <v>1123.712823154604</v>
       </c>
       <c r="W13" t="n">
-        <v>1101.902621298592</v>
+        <v>834.2956531176437</v>
       </c>
       <c r="X13" t="n">
-        <v>873.9130704005747</v>
+        <v>797.8013867087618</v>
       </c>
       <c r="Y13" t="n">
-        <v>873.9130704005747</v>
+        <v>577.0088075652317</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708302</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128779</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>424.3593983639619</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331906</v>
+        <v>424.3593983639619</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>1016.37775261609</v>
       </c>
       <c r="N15" t="n">
-        <v>2128.167016284654</v>
+        <v>1550.98943211006</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>2097.865907110254</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.754398433617</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>846.8182155057104</v>
+        <v>389.8182101363266</v>
       </c>
       <c r="D16" t="n">
-        <v>696.7015760933747</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109816</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130712</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2409.624477482183</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2189.945695196564</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1900.869481511291</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1646.184993305405</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1646.184993305405</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1418.195442407387</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1197.402863263857</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057243</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778174</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,10 +5765,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>150.8995423128889</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>484.8243144841095</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>980.1499206998682</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925215</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.9324428257298</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257298</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133955</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310024</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179083</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057243</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778174</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654817</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830886</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1842.070412183399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1587.385923977512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6780,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400708</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400708</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400708</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>513.8536007400708</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>366.9636532421605</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138406</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703105</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832228</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831764</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.896109690899</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7436,10 +7436,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908933</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908933</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908934</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7640,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,28 +7667,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908935</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908935</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908935</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,13 +7822,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925703</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490402</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>391.2261292428727</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>292.1126504237868</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8058,25 +8058,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>89.54312379457448</v>
+        <v>8.862918322875885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>458.0981188384287</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,19 +8219,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>250.7308605730632</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>154.8683541940946</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>345.1708998087248</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>48.1056061726357</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0447662673728</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>342.3322024647178</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>179.7774652349529</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>209.2556651658504</v>
+        <v>345.3983431324115</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>44.05672894381725</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>27.62915296995965</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>183.5493895079563</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.81637830449435</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034033</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146338</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>189.5803316442438</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.2915261372913</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>50.29152613728957</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>64.04844901173821</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440902</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.7747043997539</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>191.2691783702297</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253398</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823128</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>206.771326079606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>123.7828069546804</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462219</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>85.77246603528411</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124964</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25132,10 +25132,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>146.9958004224549</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>145.6085800303785</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>35.40333084624555</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.70496293143231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194176</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>890566.7264417692</v>
+        <v>890566.7264417695</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>969315.1656157607</v>
+        <v>969315.1656157606</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781308</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781307</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781308</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781308</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>974675.3592781308</v>
+        <v>974675.3592781309</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781308</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>974675.3592781308</v>
+        <v>974675.3592781307</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253556</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="E2" t="n">
         <v>405380.8397795043</v>
       </c>
       <c r="F2" t="n">
-        <v>441473.8744009171</v>
+        <v>441473.8744009169</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295036</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="H2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="I2" t="n">
+        <v>443930.6298295032</v>
+      </c>
+      <c r="J2" t="n">
+        <v>443930.6298295035</v>
+      </c>
+      <c r="K2" t="n">
         <v>443930.6298295033</v>
-      </c>
-      <c r="I2" t="n">
-        <v>443930.6298295033</v>
-      </c>
-      <c r="J2" t="n">
-        <v>443930.6298295034</v>
-      </c>
-      <c r="K2" t="n">
-        <v>443930.6298295035</v>
       </c>
       <c r="L2" t="n">
         <v>443930.6298295034</v>
@@ -26353,7 +26353,7 @@
         <v>443930.6298295032</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>792647.413710985</v>
+        <v>792647.4137109849</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>143427.3523991859</v>
+        <v>143427.3523991856</v>
       </c>
       <c r="E3" t="n">
-        <v>458840.653472932</v>
+        <v>458840.653472933</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051379</v>
+        <v>166521.3471051371</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.2362355791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80399.8974313553</v>
+        <v>80399.89743135551</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848914</v>
+        <v>43782.40655848887</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>6798.303539401317</v>
       </c>
       <c r="F4" t="n">
-        <v>6890.891875482008</v>
+        <v>6890.891875482009</v>
       </c>
       <c r="G4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="J4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707363</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707364</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.424496707369</v>
       </c>
-      <c r="K4" t="n">
-        <v>6897.424496707368</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707368</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707383</v>
-      </c>
       <c r="O4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.42449670735</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707423</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86618.07783747559</v>
+        <v>86618.07783747558</v>
       </c>
       <c r="C5" t="n">
-        <v>86618.07783747559</v>
+        <v>86618.07783747558</v>
       </c>
       <c r="D5" t="n">
-        <v>90269.01801629362</v>
+        <v>90269.01801629359</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214713</v>
+        <v>86093.72216214718</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-617584.3305447232</v>
       </c>
       <c r="C6" t="n">
-        <v>175063.0831662618</v>
+        <v>175063.0831662616</v>
       </c>
       <c r="D6" t="n">
-        <v>57368.89036223819</v>
+        <v>57368.89036223851</v>
       </c>
       <c r="E6" t="n">
-        <v>-146351.8393949761</v>
+        <v>-146561.803638822</v>
       </c>
       <c r="F6" t="n">
-        <v>167919.5069064588</v>
+        <v>167873.6019108938</v>
       </c>
       <c r="G6" t="n">
-        <v>324743.4392733104</v>
+        <v>324708.701347874</v>
       </c>
       <c r="H6" t="n">
-        <v>335910.6755088888</v>
+        <v>335875.9375834533</v>
       </c>
       <c r="I6" t="n">
-        <v>335910.6755088888</v>
+        <v>335875.9375834531</v>
       </c>
       <c r="J6" t="n">
-        <v>163549.683108608</v>
+        <v>163514.9451831725</v>
       </c>
       <c r="K6" t="n">
-        <v>335910.675508889</v>
+        <v>335875.9375834531</v>
       </c>
       <c r="L6" t="n">
-        <v>335910.6755088889</v>
+        <v>335875.9375834531</v>
       </c>
       <c r="M6" t="n">
-        <v>255510.7780775338</v>
+        <v>255476.0401520979</v>
       </c>
       <c r="N6" t="n">
-        <v>292128.2689503998</v>
+        <v>292093.5310249643</v>
       </c>
       <c r="O6" t="n">
-        <v>332887.3775316642</v>
+        <v>332852.6396062284</v>
       </c>
       <c r="P6" t="n">
-        <v>335910.675508889</v>
+        <v>335875.9375834532</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26741,10 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>760.9504204673319</v>
+        <v>760.9504204673316</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="C4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="D4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086481</v>
+        <v>981.3883278086488</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>167.4743201292669</v>
+        <v>167.4743201292665</v>
       </c>
       <c r="E3" t="n">
-        <v>451.2198470272242</v>
+        <v>451.2198470272252</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218297</v>
+        <v>145.870781221829</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>322.6268335634874</v>
+        <v>322.6268335634882</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173577</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>322.6268335634874</v>
+        <v>322.6268335634882</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173577</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>322.6268335634874</v>
+        <v>322.6268335634882</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173577</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>82.35836642664623</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>393.9222131174724</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>3.042445977993232</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>264.9970102947662</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>239.6227265133937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>11.66798279318564</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178.6186691746375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27795,7 +27795,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>12.27094238504941</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>254.1123845104152</v>
       </c>
       <c r="H8" t="n">
-        <v>58.46232805709332</v>
+        <v>308.145823246979</v>
       </c>
       <c r="I8" t="n">
-        <v>92.54004601234834</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>139.3108928771023</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1009251344199</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>13.34724676641937</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>67.30958658978537</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.6187736822062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>114.1845078632266</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>115.5940343340314</v>
       </c>
       <c r="S10" t="n">
-        <v>200.1027954790071</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2441817741499</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29436,7 +29436,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -29685,7 +29685,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.961097950697877e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.059097167707865</v>
+        <v>3.059097167707863</v>
       </c>
       <c r="H8" t="n">
-        <v>31.32897886878818</v>
+        <v>31.32897886878816</v>
       </c>
       <c r="I8" t="n">
-        <v>117.9358435580576</v>
+        <v>117.9358435580575</v>
       </c>
       <c r="J8" t="n">
-        <v>259.6370482377456</v>
+        <v>259.6370482377455</v>
       </c>
       <c r="K8" t="n">
-        <v>389.1286313468196</v>
+        <v>389.1286313468194</v>
       </c>
       <c r="L8" t="n">
-        <v>482.7484762930593</v>
+        <v>482.7484762930591</v>
       </c>
       <c r="M8" t="n">
-        <v>537.150695549284</v>
+        <v>537.1506955492838</v>
       </c>
       <c r="N8" t="n">
-        <v>545.842355377034</v>
+        <v>545.8423553770338</v>
       </c>
       <c r="O8" t="n">
-        <v>515.4234579156389</v>
+        <v>515.4234579156387</v>
       </c>
       <c r="P8" t="n">
-        <v>439.9019965878509</v>
+        <v>439.9019965878507</v>
       </c>
       <c r="Q8" t="n">
-        <v>330.3480792693129</v>
+        <v>330.3480792693127</v>
       </c>
       <c r="R8" t="n">
-        <v>192.1610124610293</v>
+        <v>192.1610124610292</v>
       </c>
       <c r="S8" t="n">
-        <v>69.70917670914304</v>
+        <v>69.70917670914301</v>
       </c>
       <c r="T8" t="n">
         <v>13.39119785164118</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2447277734166291</v>
+        <v>0.244727773416629</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.636761281759922</v>
+        <v>1.636761281759921</v>
       </c>
       <c r="H9" t="n">
-        <v>15.80766816857609</v>
+        <v>15.80766816857608</v>
       </c>
       <c r="I9" t="n">
-        <v>56.35340377989204</v>
+        <v>56.35340377989202</v>
       </c>
       <c r="J9" t="n">
-        <v>154.6380472385547</v>
+        <v>154.6380472385546</v>
       </c>
       <c r="K9" t="n">
-        <v>264.3010531164695</v>
+        <v>264.3010531164693</v>
       </c>
       <c r="L9" t="n">
-        <v>355.3853826908988</v>
+        <v>355.3853826908986</v>
       </c>
       <c r="M9" t="n">
-        <v>414.7179791546959</v>
+        <v>414.7179791546957</v>
       </c>
       <c r="N9" t="n">
-        <v>425.6943300310596</v>
+        <v>425.6943300310594</v>
       </c>
       <c r="O9" t="n">
-        <v>389.4271458404845</v>
+        <v>389.4271458404843</v>
       </c>
       <c r="P9" t="n">
-        <v>312.5496170406292</v>
+        <v>312.5496170406291</v>
       </c>
       <c r="Q9" t="n">
-        <v>208.9311418611437</v>
+        <v>208.9311418611436</v>
       </c>
       <c r="R9" t="n">
         <v>101.6227750201467</v>
       </c>
       <c r="S9" t="n">
-        <v>30.40212293093536</v>
+        <v>30.40212293093535</v>
       </c>
       <c r="T9" t="n">
-        <v>6.597296569900734</v>
+        <v>6.597296569900731</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1076816632736791</v>
+        <v>0.107681663273679</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,31 +31671,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.372205676252566</v>
+        <v>1.372205676252565</v>
       </c>
       <c r="H10" t="n">
         <v>12.200155921591</v>
       </c>
       <c r="I10" t="n">
-        <v>41.26596706403171</v>
+        <v>41.26596706403169</v>
       </c>
       <c r="J10" t="n">
-        <v>97.01494131105639</v>
+        <v>97.01494131105633</v>
       </c>
       <c r="K10" t="n">
-        <v>159.4253503864344</v>
+        <v>159.4253503864343</v>
       </c>
       <c r="L10" t="n">
-        <v>204.009560267586</v>
+        <v>204.0095602675859</v>
       </c>
       <c r="M10" t="n">
         <v>215.099477051118</v>
       </c>
       <c r="N10" t="n">
-        <v>209.9848922578132</v>
+        <v>209.9848922578131</v>
       </c>
       <c r="O10" t="n">
-        <v>193.9550350397718</v>
+        <v>193.9550350397717</v>
       </c>
       <c r="P10" t="n">
         <v>165.9620392442193</v>
@@ -31704,16 +31704,16 @@
         <v>114.9035134905671</v>
       </c>
       <c r="R10" t="n">
-        <v>61.69935704313807</v>
+        <v>61.69935704313804</v>
       </c>
       <c r="S10" t="n">
-        <v>23.91380255796516</v>
+        <v>23.91380255796515</v>
       </c>
       <c r="T10" t="n">
-        <v>5.863060616715506</v>
+        <v>5.863060616715503</v>
       </c>
       <c r="U10" t="n">
-        <v>0.07484758234104912</v>
+        <v>0.07484758234104909</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485649</v>
+        <v>4.873046301485652</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508994</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380258</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307182</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726057</v>
+        <v>619.869763472606</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216973</v>
+        <v>769.0032542216977</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857426</v>
+        <v>855.6642913857431</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898388</v>
+        <v>869.5098341898392</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294408</v>
+        <v>821.0534800294413</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615137</v>
+        <v>700.7501494615141</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895588</v>
+        <v>526.234178789559</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356983</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475344</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188521</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969424</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191523</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596479</v>
+        <v>89.76921320596483</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783043</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202557</v>
       </c>
       <c r="L12" t="n">
-        <v>261.0351601851871</v>
+        <v>566.1178216256419</v>
       </c>
       <c r="M12" t="n">
-        <v>660.632795784533</v>
+        <v>660.6327957845334</v>
       </c>
       <c r="N12" t="n">
-        <v>678.117780114714</v>
+        <v>237.336758373254</v>
       </c>
       <c r="O12" t="n">
-        <v>620.345287743181</v>
+        <v>620.3452877431813</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205471</v>
+        <v>497.8817840205473</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>332.8207874071848</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697589</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236086</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737176</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691791</v>
+        <v>65.73539745691795</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836913</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.9596068619743</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509178</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263711</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973096</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050061</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916781</v>
       </c>
       <c r="R13" t="n">
-        <v>98.2851498857061</v>
+        <v>98.28514988570616</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929612</v>
+        <v>38.09394102929614</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826904</v>
+        <v>9.33967255282691</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,16 +32081,16 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>671.3535095519898</v>
       </c>
       <c r="O15" t="n">
-        <v>147.6720980399086</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
         <v>557.7961431982454</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>184.4971006716334</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3420541567482</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,22 +33500,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>290.6810969936921</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,16 +34699,16 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L2" t="n">
-        <v>531.9621452441386</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M2" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>633.6441091513602</v>
+        <v>488.4098351631629</v>
       </c>
       <c r="O2" t="n">
         <v>552.6880856233105</v>
@@ -34717,7 +34717,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L3" t="n">
-        <v>228.1588793659825</v>
+        <v>147.4786738942839</v>
       </c>
       <c r="M3" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N3" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P3" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>391.466876574329</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>351.1655389334708</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>247.6524856312129</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>483.7866553801329</v>
       </c>
       <c r="M6" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>248.7689815793677</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>247.6877588831331</v>
+        <v>78.5911437110592</v>
       </c>
       <c r="K8" t="n">
-        <v>312.0835465692119</v>
+        <v>493.1841928730036</v>
       </c>
       <c r="L8" t="n">
-        <v>246.9820613230721</v>
+        <v>246.9820613230718</v>
       </c>
       <c r="M8" t="n">
-        <v>306.8044623220113</v>
+        <v>306.8044623220111</v>
       </c>
       <c r="N8" t="n">
-        <v>316.4292917804431</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O8" t="n">
-        <v>285.3252464939521</v>
+        <v>285.3252464939519</v>
       </c>
       <c r="P8" t="n">
-        <v>530.4677090040641</v>
+        <v>208.6690008325812</v>
       </c>
       <c r="Q8" t="n">
-        <v>320.3573800547681</v>
+        <v>287.8198546298161</v>
       </c>
       <c r="R8" t="n">
-        <v>42.29189451987963</v>
+        <v>42.29189451987955</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>153.8914559122969</v>
+        <v>153.8914559122968</v>
       </c>
       <c r="K9" t="n">
-        <v>390.9248511546891</v>
+        <v>390.924851154689</v>
       </c>
       <c r="L9" t="n">
-        <v>426.086668076875</v>
+        <v>562.229346043436</v>
       </c>
       <c r="M9" t="n">
-        <v>272.5839452326775</v>
+        <v>272.5839452326774</v>
       </c>
       <c r="N9" t="n">
-        <v>294.3526179477263</v>
+        <v>294.3526179477261</v>
       </c>
       <c r="O9" t="n">
-        <v>246.83090139604</v>
+        <v>640.6932206727694</v>
       </c>
       <c r="P9" t="n">
-        <v>497.0379782662362</v>
+        <v>178.5752096262989</v>
       </c>
       <c r="Q9" t="n">
-        <v>279.0266555109713</v>
+        <v>68.94936777512208</v>
       </c>
       <c r="R9" t="n">
-        <v>1.464940867503614</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.655761194383615</v>
+        <v>3.655761194383558</v>
       </c>
       <c r="K10" t="n">
-        <v>137.1558585605516</v>
+        <v>137.1558585605515</v>
       </c>
       <c r="L10" t="n">
         <v>231.5995855279021</v>
       </c>
       <c r="M10" t="n">
-        <v>254.6833540129586</v>
+        <v>254.6833540129585</v>
       </c>
       <c r="N10" t="n">
-        <v>254.1170646370418</v>
+        <v>254.1170646370417</v>
       </c>
       <c r="O10" t="n">
-        <v>218.5401629538115</v>
+        <v>218.5401629538114</v>
       </c>
       <c r="P10" t="n">
-        <v>163.2405985091128</v>
+        <v>163.2405985091127</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.74147023887274</v>
+        <v>28.74147023887268</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040317</v>
+        <v>232.5478090040319</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276251</v>
+        <v>399.7799124276254</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517105</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584699</v>
+        <v>625.3180581584704</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932483</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077541</v>
+        <v>590.9552686077545</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062442</v>
+        <v>469.5171537062445</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151093</v>
+        <v>303.9284889151095</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156604</v>
+        <v>90.52095692156621</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116376</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458967</v>
       </c>
       <c r="L12" t="n">
-        <v>122.4807804053129</v>
+        <v>427.5634418457677</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>518.498761862515</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313808</v>
+        <v>105.9950462899208</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987365</v>
+        <v>477.7490432987369</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>363.9073766062171</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>192.8390133211632</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936578</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701841</v>
+        <v>61.1825931670185</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360914</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112339</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882115</v>
+        <v>382.2306297882117</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765382</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190458</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998358</v>
+        <v>96.87566713998369</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>540.0117974686565</v>
       </c>
       <c r="O15" t="n">
-        <v>5.07585359546421</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
         <v>423.8217357839152</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>57.6594740049667</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>97.00034207341486</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,10 +36850,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,7 +37637,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>159.3393849103587</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
